--- a/median_income_county_2020.xlsx
+++ b/median_income_county_2020.xlsx
@@ -1,37 +1,170 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
   <workbookPr/>
-  <workbookProtection/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\amcclary\Documents\GitHub\Demographics\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8311A50A-D50E-4C88-9E07-A462CB942D27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="36">
+  <si>
+    <t>variable_category</t>
+  </si>
+  <si>
+    <t>year_sample</t>
+  </si>
+  <si>
+    <t>dataset</t>
+  </si>
+  <si>
+    <t>county</t>
+  </si>
+  <si>
+    <t>level_0</t>
+  </si>
+  <si>
+    <t>index</t>
+  </si>
+  <si>
+    <t>variable_code</t>
+  </si>
+  <si>
+    <t>variable_name</t>
+  </si>
+  <si>
+    <t>value</t>
+  </si>
+  <si>
+    <t>temp</t>
+  </si>
+  <si>
+    <t>Lower</t>
+  </si>
+  <si>
+    <t>Upper</t>
+  </si>
+  <si>
+    <t>cumulative_sum</t>
+  </si>
+  <si>
+    <t>TotalSum</t>
+  </si>
+  <si>
+    <t>previous_cumulative</t>
+  </si>
+  <si>
+    <t>cumulative_difference</t>
+  </si>
+  <si>
+    <t>interpolation_ratio</t>
+  </si>
+  <si>
+    <t>median_value</t>
+  </si>
+  <si>
+    <t>Household Income</t>
+  </si>
+  <si>
+    <t>acs/acs5</t>
+  </si>
+  <si>
+    <t>005</t>
+  </si>
+  <si>
+    <t>B19001_012E</t>
+  </si>
+  <si>
+    <t>$60,000 to $74,999</t>
+  </si>
+  <si>
+    <t>['60000', '74999']</t>
+  </si>
+  <si>
+    <t>017</t>
+  </si>
+  <si>
+    <t>031</t>
+  </si>
+  <si>
+    <t>B19001_014E</t>
+  </si>
+  <si>
+    <t>$100,000 to $124,999</t>
+  </si>
+  <si>
+    <t>['100000', '124999']</t>
+  </si>
+  <si>
+    <t>061</t>
+  </si>
+  <si>
+    <t>CountyCode</t>
+  </si>
+  <si>
+    <t>County Name</t>
+  </si>
+  <si>
+    <t>El Dorado County (Tahoe Basin)</t>
+  </si>
+  <si>
+    <t>Placer County (Tahoe Basin)</t>
+  </si>
+  <si>
+    <t>Douglas County (Tahoe Basin)</t>
+  </si>
+  <si>
+    <t>Washoe County (Tahoe Basin)</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -46,93 +179,43 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -420,396 +503,382 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:S5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:T5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>variable_category</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>year_sample</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>dataset</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>county</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>level_0</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>index</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>variable_code</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>variable_name</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>value</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>temp</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>Lower</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>Upper</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>cumulative_sum</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
-        <is>
-          <t>TotalSum</t>
-        </is>
-      </c>
-      <c r="P1" s="1" t="inlineStr">
-        <is>
-          <t>previous_cumulative</t>
-        </is>
-      </c>
-      <c r="Q1" s="1" t="inlineStr">
-        <is>
-          <t>cumulative_difference</t>
-        </is>
-      </c>
-      <c r="R1" s="1" t="inlineStr">
-        <is>
-          <t>interpolation_ratio</t>
-        </is>
-      </c>
-      <c r="S1" s="1" t="inlineStr">
-        <is>
-          <t>median_value</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>Household Income</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2">
         <v>2020</v>
       </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>acs/acs5</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>005</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
+      <c r="D2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F2">
         <v>40</v>
       </c>
-      <c r="G2" t="n">
+      <c r="G2">
         <v>96</v>
       </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>B19001_012E</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>$60,000 to $74,999</t>
-        </is>
-      </c>
-      <c r="J2" t="n">
+      <c r="H2" t="s">
+        <v>21</v>
+      </c>
+      <c r="I2" t="s">
+        <v>22</v>
+      </c>
+      <c r="J2">
         <v>349</v>
       </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>['60000', '74999']</t>
-        </is>
-      </c>
-      <c r="L2" t="n">
+      <c r="K2" t="s">
+        <v>23</v>
+      </c>
+      <c r="L2">
         <v>60000</v>
       </c>
-      <c r="M2" t="n">
+      <c r="M2">
         <v>74999</v>
       </c>
-      <c r="N2" t="n">
+      <c r="N2">
         <v>1459</v>
       </c>
-      <c r="O2" t="n">
+      <c r="O2">
         <v>2613</v>
       </c>
-      <c r="P2" t="n">
+      <c r="P2">
         <v>1110</v>
       </c>
-      <c r="Q2" t="n">
+      <c r="Q2">
         <v>196.5</v>
       </c>
-      <c r="R2" t="n">
-        <v>0.5630372492836676</v>
-      </c>
-      <c r="S2" t="n">
-        <v>68444.99570200573</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
+      <c r="R2">
+        <v>0.56303724928366761</v>
+      </c>
+      <c r="S2">
+        <v>68444.995702005734</v>
+      </c>
+      <c r="T2" t="str">
+        <f>VLOOKUP(E2,Sheet2!A2:B5,2,FALSE)</f>
+        <v>Douglas County (Tahoe Basin)</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
         <v>1</v>
       </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Household Income</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
+      <c r="B3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3">
         <v>2020</v>
       </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>acs/acs5</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>017</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
+      <c r="D3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F3">
         <v>41</v>
       </c>
-      <c r="G3" t="n">
+      <c r="G3">
         <v>97</v>
       </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>B19001_012E</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>$60,000 to $74,999</t>
-        </is>
-      </c>
-      <c r="J3" t="n">
+      <c r="H3" t="s">
+        <v>21</v>
+      </c>
+      <c r="I3" t="s">
+        <v>22</v>
+      </c>
+      <c r="J3">
         <v>1193</v>
       </c>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>['60000', '74999']</t>
-        </is>
-      </c>
-      <c r="L3" t="n">
+      <c r="K3" t="s">
+        <v>23</v>
+      </c>
+      <c r="L3">
         <v>60000</v>
       </c>
-      <c r="M3" t="n">
+      <c r="M3">
         <v>74999</v>
       </c>
-      <c r="N3" t="n">
+      <c r="N3">
         <v>7540</v>
       </c>
-      <c r="O3" t="n">
+      <c r="O3">
         <v>12985</v>
       </c>
-      <c r="P3" t="n">
+      <c r="P3">
         <v>6347</v>
       </c>
-      <c r="Q3" t="n">
+      <c r="Q3">
         <v>145.5</v>
       </c>
-      <c r="R3" t="n">
+      <c r="R3">
         <v>0.1219614417435038</v>
       </c>
-      <c r="S3" t="n">
-        <v>61829.29966471082</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
+      <c r="S3">
+        <v>61829.299664710823</v>
+      </c>
+      <c r="T3" t="str">
+        <f>VLOOKUP(E3,Sheet2!A3:B6,2,FALSE)</f>
+        <v>El Dorado County (Tahoe Basin)</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
         <v>2</v>
       </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Household Income</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
+      <c r="B4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4">
         <v>2020</v>
       </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>acs/acs5</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>031</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
+      <c r="D4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F4">
         <v>50</v>
       </c>
-      <c r="G4" t="n">
+      <c r="G4">
         <v>106</v>
       </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>B19001_014E</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>$100,000 to $124,999</t>
-        </is>
-      </c>
-      <c r="J4" t="n">
+      <c r="H4" t="s">
+        <v>26</v>
+      </c>
+      <c r="I4" t="s">
+        <v>27</v>
+      </c>
+      <c r="J4">
         <v>326</v>
       </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>['100000', '124999']</t>
-        </is>
-      </c>
-      <c r="L4" t="n">
+      <c r="K4" t="s">
+        <v>28</v>
+      </c>
+      <c r="L4">
         <v>100000</v>
       </c>
-      <c r="M4" t="n">
+      <c r="M4">
         <v>124999</v>
       </c>
-      <c r="N4" t="n">
+      <c r="N4">
         <v>2100</v>
       </c>
-      <c r="O4" t="n">
+      <c r="O4">
         <v>4032</v>
       </c>
-      <c r="P4" t="n">
+      <c r="P4">
         <v>1774</v>
       </c>
-      <c r="Q4" t="n">
+      <c r="Q4">
         <v>242</v>
       </c>
-      <c r="R4" t="n">
-        <v>0.7423312883435583</v>
-      </c>
-      <c r="S4" t="n">
+      <c r="R4">
+        <v>0.74233128834355833</v>
+      </c>
+      <c r="S4">
         <v>118557.5398773006</v>
       </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
+      <c r="T4" t="str">
+        <f>VLOOKUP(E4,Sheet2!A4:B7,2,FALSE)</f>
+        <v>Washoe County (Tahoe Basin)</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
         <v>3</v>
       </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Household Income</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
+      <c r="B5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5">
         <v>2020</v>
       </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>acs/acs5</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>061</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
+      <c r="D5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" t="s">
+        <v>29</v>
+      </c>
+      <c r="F5">
         <v>43</v>
       </c>
-      <c r="G5" t="n">
+      <c r="G5">
         <v>99</v>
       </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>B19001_012E</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>$60,000 to $74,999</t>
-        </is>
-      </c>
-      <c r="J5" t="n">
+      <c r="H5" t="s">
+        <v>21</v>
+      </c>
+      <c r="I5" t="s">
+        <v>22</v>
+      </c>
+      <c r="J5">
         <v>286</v>
       </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>['60000', '74999']</t>
-        </is>
-      </c>
-      <c r="L5" t="n">
+      <c r="K5" t="s">
+        <v>23</v>
+      </c>
+      <c r="L5">
         <v>60000</v>
       </c>
-      <c r="M5" t="n">
+      <c r="M5">
         <v>74999</v>
       </c>
-      <c r="N5" t="n">
+      <c r="N5">
         <v>1919</v>
       </c>
-      <c r="O5" t="n">
+      <c r="O5">
         <v>3665</v>
       </c>
-      <c r="P5" t="n">
+      <c r="P5">
         <v>1633</v>
       </c>
-      <c r="Q5" t="n">
+      <c r="Q5">
         <v>199.5</v>
       </c>
-      <c r="R5" t="n">
-        <v>0.6975524475524476</v>
-      </c>
-      <c r="S5" t="n">
-        <v>70462.58916083915</v>
+      <c r="R5">
+        <v>0.69755244755244761</v>
+      </c>
+      <c r="S5">
+        <v>70462.589160839154</v>
+      </c>
+      <c r="T5" t="str">
+        <f>VLOOKUP(E5,Sheet2!A5:B8,2,FALSE)</f>
+        <v>Placer County (Tahoe Basin)</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{757B5A53-372D-4DE4-8B92-3523C81DC73F}">
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>